--- a/CodeSystem-CSEstablecimientoDestinoCodigo.xlsx
+++ b/CodeSystem-CSEstablecimientoDestinoCodigo.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/CodeSystem-CSEstablecimientoDestinoCodigo.xlsx
+++ b/CodeSystem-CSEstablecimientoDestinoCodigo.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/CodeSystem-CSEstablecimientoDestinoCodigo.xlsx
+++ b/CodeSystem-CSEstablecimientoDestinoCodigo.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/CodeSystem-CSEstablecimientoDestinoCodigo.xlsx
+++ b/CodeSystem-CSEstablecimientoDestinoCodigo.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Establecimiento Destino Codigo</t>
+    <t>Establecimiento Destino Codigo ejemplos hechos en base a este documento con los [Códigos DEIS del establecimientos](https://datos.gob.cl/dataset/establecimientos-de-salud-vigentes)</t>
   </si>
   <si>
     <t>Status</t>
@@ -120,7 +120,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>36</t>
+    <t>11</t>
   </si>
   <si>
     <t>Level</t>
@@ -141,217 +141,67 @@
     <t>101012</t>
   </si>
   <si>
-    <t>Servicio de Salud Arica Clínica Dental Móvil Simple. Pat. PW4076 (Arica)</t>
+    <t>Clínica Dental Móvil Simple. Pat. PW4076 (Arica) Servicio de Salud Arica</t>
   </si>
   <si>
     <t>101090</t>
   </si>
   <si>
-    <t>Servicio de Salud Arica Oficina Sanitaria Chacalluta</t>
+    <t>Oficina Sanitaria Chacalluta Servicio de Salud Arica</t>
   </si>
   <si>
     <t>101100</t>
   </si>
   <si>
-    <t>Servicio de Salud Arica Hospital Dr. Juan Noé Crevanni (Arica)</t>
+    <t>Hospital Dr. Juan Noé Crevanni (Arica) Servicio de Salud Arica</t>
   </si>
   <si>
     <t>101203</t>
   </si>
   <si>
-    <t>SEREMI De Arica y Parinacota Clínica Hebe</t>
+    <t>Clínica Hebe SEREMI De Arica y Parinacota</t>
   </si>
   <si>
     <t>101212</t>
   </si>
   <si>
-    <t>SEREMI De Arica y Parinacota Clínica San Agustín</t>
+    <t>Clínica San Agustín SEREMI De Arica y Parinacota</t>
   </si>
   <si>
     <t>101213</t>
   </si>
   <si>
-    <t>SEREMI De Arica y Parinacota Clínica San José</t>
+    <t>Clínica San José SEREMI De Arica y Parinacota</t>
   </si>
   <si>
     <t>101214</t>
   </si>
   <si>
-    <t>SEREMI De Arica y Parinacota Clínica Arica</t>
-  </si>
-  <si>
-    <t>101215</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Complejo Penitenciario</t>
-  </si>
-  <si>
-    <t>101216</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Servicio Médico Estudiantil U de Tarapacá</t>
-  </si>
-  <si>
-    <t>101217</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Centro Clínico Militar Arica</t>
-  </si>
-  <si>
-    <t>101219</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Policlínico del Trabajador AChS Arica</t>
-  </si>
-  <si>
-    <t>101222</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Instituto de Rehabilitación Infantil TELETÓN (Arica)</t>
-  </si>
-  <si>
-    <t>101223</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Centro Médico Monte Sinaí</t>
-  </si>
-  <si>
-    <t>101224</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Clínica Santo Domingo</t>
-  </si>
-  <si>
-    <t>101225</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Centro Integral de Salud</t>
-  </si>
-  <si>
-    <t>101227</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Policlínico Institucional de Gendarmería de Chile (Arica)</t>
-  </si>
-  <si>
-    <t>101228</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Policlínico del Agricultor</t>
-  </si>
-  <si>
-    <t>101229</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Centro Odontológico Arica</t>
-  </si>
-  <si>
-    <t>101234</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Centro de Salud Mutual CChC Arica</t>
-  </si>
-  <si>
-    <t>101236</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Centro Dental Megasalud SpA</t>
-  </si>
-  <si>
-    <t>101237</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Clínica Dr. Héctor Sánchez</t>
-  </si>
-  <si>
-    <t>101238</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Clínica Mella Arica y Compañía Ltda.</t>
-  </si>
-  <si>
-    <t>101239</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Policlínico Médico-Dental de Carabineros</t>
-  </si>
-  <si>
-    <t>101240</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Laboratorio Clínico San José Ltda.</t>
-  </si>
-  <si>
-    <t>101241</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Laboratorio Bionet</t>
-  </si>
-  <si>
-    <t>101242</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Laboratorio Clínico y Hematológico Diagnotest</t>
-  </si>
-  <si>
-    <t>101243</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Laboratorio Clínico Central</t>
-  </si>
-  <si>
-    <t>101244</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Laboratorio Clínico San Martín</t>
-  </si>
-  <si>
-    <t>101245</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Laboratorio Clínico Dialab</t>
-  </si>
-  <si>
-    <t>101246</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Laboratorio Clínico del Norte - Labonorte</t>
-  </si>
-  <si>
-    <t>101247</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Laboratorio Clínico Chungará</t>
-  </si>
-  <si>
-    <t>101248</t>
-  </si>
-  <si>
-    <t>SEREMI De Arica y Parinacota Laboratorio Clínico Biolascer</t>
+    <t>Clínica Arica SEREMI De Arica y Parinacota</t>
   </si>
   <si>
     <t>101300</t>
   </si>
   <si>
-    <t>Servicio de Salud Arica Centro de Salud Familiar Víctor Bertín Soto</t>
+    <t>Centro de Salud Familiar Víctor Bertín Soto Servicio de Salud Arica</t>
   </si>
   <si>
     <t>101302</t>
   </si>
   <si>
-    <t>Servicio de Salud Arica Centro de Salud Familiar Dr. Amador Neghme de Arica</t>
+    <t>Centro de Salud Familiar Dr. Amador Neghme de Arica Servicio de Salud Arica</t>
   </si>
   <si>
     <t>101303</t>
   </si>
   <si>
-    <t>Servicio de Salud Arica Centro de Salud Familiar E. U. Iris Véliz Hume (Ex Oriente)</t>
+    <t>Centro de Salud Familiar E. U. Iris Véliz Hume (Ex Oriente) Servicio de Salud Arica</t>
   </si>
   <si>
     <t>101304</t>
   </si>
   <si>
-    <t>Servicio de Salud Arica Centro de Salud Familiar Putre</t>
+    <t>Centro de Salud Familiar Putre Servicio de Salud Arica</t>
   </si>
 </sst>
 </file>
@@ -664,7 +514,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -816,306 +666,6 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D37" s="2"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-CSEstablecimientoDestinoCodigo.xlsx
+++ b/CodeSystem-CSEstablecimientoDestinoCodigo.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>Property</t>
   </si>
@@ -42,46 +42,49 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Establecimiento Destino Codigo</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2023-01-15</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Unidad de Interoperabilidad - MINSAL</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Establecimiento Destino Codigo ejemplos hechos en base a este documento con los [Códigos DEIS del establecimientos](https://datos.gob.cl/dataset/establecimientos-de-salud-vigentes)</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2023-01-15</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Unidad de Interoperabilidad - MINSAL</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Description</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -438,73 +441,73 @@
         <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -522,147 +525,147 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2"/>
     </row>

--- a/CodeSystem-CSEstablecimientoDestinoCodigo.xlsx
+++ b/CodeSystem-CSEstablecimientoDestinoCodigo.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
